--- a/note/07_jQuery/0315.model2ex.xlsx
+++ b/note/07_jQuery/0315.model2ex.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="170">
   <si>
     <t>이용자 권한과 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,126 +369,249 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>adminLogin.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자모드 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원들 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">main/main.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 모드 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MidConfirmService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">member/login.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLoginService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main/main.jsp</t>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logout.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLogoutService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/modify.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main/main.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MModifyService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAllViewService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/adminLogin.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>withdrawal.do</t>
+  </si>
+  <si>
+    <t>회원탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MWithdrawalService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main/main.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberDto속성들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardWriteService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardListService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardDto 속성들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardDto 속성들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardDto 속성들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">member/mAllView.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid, mpw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">aid, apw </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 소분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller 요청 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joinView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJoinService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>midConfirm.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemailConfirmService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memailConfirm.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/midConfirm.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/memailConfirm.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>adminLoginView.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adminLogin.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자모드 로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원들 리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>allView.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pageNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">main/main.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 모드 로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MidConfirmService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main/main.jsp</t>
-  </si>
-  <si>
-    <t>로그아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logout.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLogoutService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main/main.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MModifyService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAllViewService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ALoginService.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>allView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin/adminLogin.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원탈퇴</t>
+    <t xml:space="preserve">fileBoard/boardList.jsp </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -496,31 +619,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">fileBoard/boardWrite.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>boardWrite.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>boardContent.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardContentService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fileBoard/boardContent.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>boardList.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boardContent.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boardModifyView.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>boardReplyView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardModifyViewService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fileBoard/boardModify.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>boardModify.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>BoardModifyService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>boardDelete.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boardReplyView.do</t>
+    <t>BoardDeleteService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardReplyViewService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileBoard/boardReply.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -528,174 +699,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MemberDto속성들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">freeBoard/boardWrite.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">freeBoard/boardList.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">freeBoard/boardContent.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">freeBoard/boardModify.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">freeBoard/boardReply.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardWriteService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardListService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardContentService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardModifyService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardDeleteService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardReplyViewService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BoardReplyService.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BoardDto 속성들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardDto 속성들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardDto 속성들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardModifyViewService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">member/mAllView.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boardList.do</t>
-  </si>
-  <si>
-    <t>boardList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mid, mpw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">aid, apw </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능 소분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Controller 요청 경로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>joinView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MJoinService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>midConfirm.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memailConfirm.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member/midConfirm.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemailConfirmService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member/memailConfirm.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">member/login.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLoginService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main/main.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modifyView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member/modify.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modify.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>withdrawal.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MWithdrawalService.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1380,6 +1388,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1389,24 +1421,6 @@
     <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1415,12 +1429,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3496,7 +3504,7 @@
   <dimension ref="B2:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3515,53 +3523,53 @@
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="41"/>
       <c r="C2" s="42" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>57</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="H2" s="42" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="68" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="E3" s="45" t="s">
         <v>93</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>94</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="72"/>
-      <c r="C4" s="71" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="72" t="s">
         <v>61</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="45"/>
@@ -3570,118 +3578,118 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="45" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="F5" s="45"/>
       <c r="G5" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="45" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="45" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="45" t="s">
         <v>62</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="74" t="s">
-        <v>87</v>
+      <c r="D8" s="73" t="s">
+        <v>86</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
       <c r="H8" s="46" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="70"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="H9" s="46" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="70"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="E10" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="F10" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="46" t="s">
-        <v>91</v>
-      </c>
       <c r="G10" s="46" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="74" t="s">
         <v>96</v>
-      </c>
-      <c r="D11" s="75" t="s">
-        <v>97</v>
       </c>
       <c r="E11" s="47" t="s">
         <v>99</v>
@@ -3689,132 +3697,132 @@
       <c r="F11" s="47"/>
       <c r="G11" s="47"/>
       <c r="H11" s="47" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="78"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
       <c r="E12" s="47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="H12" s="48" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="78"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="47" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F13" s="47"/>
       <c r="G13" s="47" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H13" s="48" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="78"/>
-      <c r="C14" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="75" t="s">
-        <v>107</v>
+      <c r="B14" s="80"/>
+      <c r="C14" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>109</v>
       </c>
       <c r="E14" s="47" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="F14" s="47"/>
       <c r="G14" s="47"/>
       <c r="H14" s="47" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="78"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="47" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H15" s="47" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="78"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="48" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="F16" s="48"/>
       <c r="G16" s="48" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="H16" s="48" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="78"/>
-      <c r="C17" s="81" t="s">
+      <c r="B17" s="80"/>
+      <c r="C17" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="71" t="s">
         <v>70</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="F17" s="49"/>
       <c r="G17" s="50"/>
       <c r="H17" s="49" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="78"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
       <c r="E18" s="49" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H18" s="49"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="78"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="49" t="s">
         <v>67</v>
       </c>
@@ -3822,18 +3830,18 @@
         <v>71</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="F19" s="49"/>
       <c r="G19" s="49" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H19" s="49" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="78"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="49" t="s">
         <v>68</v>
       </c>
@@ -3841,56 +3849,58 @@
         <v>72</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="G20" s="49" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="H20" s="49" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="78"/>
-      <c r="C21" s="68" t="s">
+      <c r="B21" s="80"/>
+      <c r="C21" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="76" t="s">
         <v>77</v>
       </c>
       <c r="E21" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="49"/>
+        <v>154</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>156</v>
+      </c>
       <c r="G21" s="49" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="H21" s="49" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="78"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
       <c r="E22" s="49" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="G22" s="49" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="H22" s="49" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="78"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="49" t="s">
         <v>73</v>
       </c>
@@ -3898,75 +3908,75 @@
         <v>76</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="H23" s="51" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="78"/>
-      <c r="C24" s="68" t="s">
+      <c r="B24" s="80"/>
+      <c r="C24" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="68" t="s">
+      <c r="D24" s="76" t="s">
         <v>75</v>
       </c>
       <c r="E24" s="49" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="H24" s="49" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="79"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
       <c r="E25" s="49" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="H25" s="51" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D17:D18"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B11:B25"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B11:B25"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
